--- a/planilhas/sinistros.xlsx
+++ b/planilhas/sinistros.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3º SEMESTRE\TCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VoidDash\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AE6118-1AD0-4660-A20F-4DB6228A0C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,9 +36,6 @@
     <t>avaria</t>
   </si>
   <si>
-    <t>Motorista relatou, que no dia 10/06/2023, na Praça Silvio Romero, perdeu o controle do carro e acabou colidindo com um food truck, alegando perda da direção. O veículo apresenta danos moderados na parte dianteira e alguns arranhões na parte traseira.</t>
-  </si>
-  <si>
     <t>Retornou com o retrovisor faltando.</t>
   </si>
   <si>
@@ -53,12 +51,6 @@
     <t xml:space="preserve">Ultrapassou o semáforo  vermelho na avenida São João </t>
   </si>
   <si>
-    <t>Motorista relatou, que no dia 04/06/2023, na Rua São Teodoro, Itaquera, colidiu de frente com um ciclista portador do CPF 806.063.890-40 que não estava andando na ciclofaixa. O veículo apresenta danos leves na parte dianteira.</t>
-  </si>
-  <si>
-    <t>Motorista relatou, que no dia 05/06/2023, na Avenida Aricanduva, perdeu o controle do carro e acabou colidindo com uma árvore, alegando ter desviado de um cachorro de rua que apareceu em sua frente de repente. O veículo apresenta danos na parte dianteira.</t>
-  </si>
-  <si>
     <t>Transitar pela contramão.</t>
   </si>
   <si>
@@ -74,18 +66,26 @@
     <t>Deixou o carro estacionado na frente do hidrante.</t>
   </si>
   <si>
-    <t>Motorista relatou, que no dia 31/05/2023, na Avenida Jacu-Pêssego enquanto parava por conta do semáforo, o portador da CNH 15874223230
-colidiu em sua traseira;
+    <t>Ddia 28/05/2023, na Avenida Itaquera, motorista colidiu com o portador do CPF 561.062.540-87  O veículo teve alguns amassados moderados na parte dianteira.</t>
+  </si>
+  <si>
+    <t>Dia 31/05/2023, na Avenida Jacu-Pêssego  o portador da CNH 15874223230 colidiu em sua traseira;
 o veículo apresenta leves danos na parte traseira.</t>
   </si>
   <si>
-    <t>Motorista relatou, que no dia 28/05/2023, na Avenida Itaquera, andou com o veículo quando o sinal estava verde, mas o portador do CPF 561.062.540-87 atravessou fora da faixa quando o sinal estava fechado para os pedestres e acabou colidindo com automóvel. O veículo teve alguns amassados moderados na parte dianteira.</t>
+    <t>Dia 04/06/2023, na Rua São Teodoro, Itaquera, colidiu de frente com um ciclista portador do CPF 806.063.890-40 O veículo apresenta danos leves na parte dianteira.</t>
+  </si>
+  <si>
+    <t>Dia 05/06/2023, na Avenida Aricanduva, motorista bateu em uma árvore. O veículo apresenta danos na parte dianteira.</t>
+  </si>
+  <si>
+    <t>Dia 10/06/2023, na Praça Silvio Romero, perdeu o controle do carro e acabou colidindo com um food truck, alegando perda da direção. O veículo apresenta danos  na parte dianteira e  arranhões na parte traseira.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,12 +115,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,11 +401,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,7 +415,7 @@
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -422,13 +423,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1">
         <v>45073</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -436,13 +437,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1">
         <v>45074</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -450,13 +451,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1">
         <v>45075</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -464,13 +465,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>45076</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -478,13 +479,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>45077</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -492,13 +493,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>45078</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -506,13 +507,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1">
         <v>45079</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -520,13 +521,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1">
         <v>45080</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -534,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1">
         <v>45081</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -548,13 +549,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1">
         <v>45082</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -562,13 +563,13 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>45083</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -576,13 +577,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1">
         <v>45084</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -590,13 +591,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1">
         <v>45085</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -604,13 +605,13 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
         <v>45086</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -618,13 +619,15 @@
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1">
         <v>45087</v>
       </c>
+      <c r="F15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>